--- a/src/spz/templates/export/spanisch_1-8.xlsx
+++ b/src/spz/templates/export/spanisch_1-8.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pingüino\Listas\Listas Simon\WS21-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasdierich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C268694-ECD5-4D5D-B6DD-6E4DB919EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D650CE10-E648-0349-A2D1-DF37BBAFDC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
+    <sheet name="RAWDATA" sheetId="15" r:id="rId1"/>
     <sheet name="Notenliste" sheetId="9" r:id="rId2"/>
     <sheet name="Notenverteilung" sheetId="8" r:id="rId3"/>
     <sheet name="Printlist" sheetId="10" r:id="rId4"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -210,7 +208,7 @@
     <t>Level:</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>A1.1</t>
   </si>
   <si>
     <t>ECTS:</t>
@@ -308,9 +306,6 @@
     <t>Spanish - DELE B2 Preparation Course</t>
   </si>
   <si>
-    <t>A1.1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -420,6 +415,9 @@
   </si>
   <si>
     <t>Marta Moriones</t>
+  </si>
+  <si>
+    <t>B2</t>
   </si>
   <si>
     <t>Manuela Rodríguez</t>
@@ -438,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +482,12 @@
       <color rgb="FFCCCC00"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -829,20 +833,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,12 +995,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1013,7 +1054,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1021,16 +1065,13 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1304,24 +1345,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C871C67D-DB25-D746-81D5-760114E729F6}" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:G2" xr:uid="{D6476474-785F-493D-8C3E-FE5C53CC2B9E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{18DA31F3-2E21-459D-AA9F-3A9C58711891}" name="Nachname" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5FC1C22A-3940-4012-84F0-B5A3F71063CE}" name="Vorname" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C0F0150D-2BF6-44D1-9C1E-A602B0DAF542}" name="Hochschule" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3D5ACDA5-6820-4231-B266-7FDDC2C7EE18}" name="Matrikelnummer" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8B2EAEA9-3AE5-4722-B15B-F724E11EF02A}" name="E-Mail" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2C41F7F7-610A-413B-AA9F-70B743BC3BB3}" name="Telefon" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="13">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="3" totalsRowDxfId="4">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="10">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1614,240 +1670,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CEA51D-E593-2149-878C-FE343EEAF603}">
+  <dimension ref="A1:XFC26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" style="39" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="39" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="37.1640625" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="16383" width="11.33203125" hidden="1"/>
+    <col min="16384" max="16384" width="16.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
+  <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1859,548 +2076,548 @@
   <dimension ref="A1:WVW59"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="1" hidden="1"/>
-    <col min="14" max="14" width="5.140625" style="1" hidden="1"/>
-    <col min="15" max="15" width="6.85546875" style="2" hidden="1"/>
-    <col min="16" max="16" width="17.7109375" style="1" hidden="1"/>
+    <col min="13" max="13" width="6.5" style="1" hidden="1"/>
+    <col min="14" max="14" width="5.1640625" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.83203125" style="2" hidden="1"/>
+    <col min="16" max="16" width="17.6640625" style="1" hidden="1"/>
     <col min="17" max="17" width="16" style="1" hidden="1"/>
-    <col min="18" max="18" width="17.7109375" style="1" hidden="1"/>
-    <col min="19" max="243" width="11.42578125" style="1" hidden="1"/>
-    <col min="244" max="244" width="15.42578125" style="1" hidden="1"/>
-    <col min="245" max="245" width="11.42578125" style="1" hidden="1"/>
-    <col min="246" max="246" width="15.7109375" style="1" hidden="1"/>
-    <col min="247" max="247" width="21.85546875" style="1" hidden="1"/>
-    <col min="248" max="250" width="11.42578125" style="1" hidden="1"/>
+    <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
+    <col min="19" max="243" width="11.5" style="1" hidden="1"/>
+    <col min="244" max="244" width="15.5" style="1" hidden="1"/>
+    <col min="245" max="245" width="11.5" style="1" hidden="1"/>
+    <col min="246" max="246" width="15.6640625" style="1" hidden="1"/>
+    <col min="247" max="247" width="21.83203125" style="1" hidden="1"/>
+    <col min="248" max="250" width="11.5" style="1" hidden="1"/>
     <col min="251" max="251" width="16" style="1" hidden="1"/>
-    <col min="252" max="252" width="20.42578125" style="1" hidden="1"/>
-    <col min="253" max="499" width="11.42578125" style="1" hidden="1"/>
-    <col min="500" max="500" width="15.42578125" style="1" hidden="1"/>
-    <col min="501" max="501" width="11.42578125" style="1" hidden="1"/>
-    <col min="502" max="502" width="15.7109375" style="1" hidden="1"/>
-    <col min="503" max="503" width="21.85546875" style="1" hidden="1"/>
-    <col min="504" max="506" width="11.42578125" style="1" hidden="1"/>
+    <col min="252" max="252" width="20.5" style="1" hidden="1"/>
+    <col min="253" max="499" width="11.5" style="1" hidden="1"/>
+    <col min="500" max="500" width="15.5" style="1" hidden="1"/>
+    <col min="501" max="501" width="11.5" style="1" hidden="1"/>
+    <col min="502" max="502" width="15.6640625" style="1" hidden="1"/>
+    <col min="503" max="503" width="21.83203125" style="1" hidden="1"/>
+    <col min="504" max="506" width="11.5" style="1" hidden="1"/>
     <col min="507" max="507" width="16" style="1" hidden="1"/>
-    <col min="508" max="508" width="20.42578125" style="1" hidden="1"/>
-    <col min="509" max="755" width="11.42578125" style="1" hidden="1"/>
-    <col min="756" max="756" width="15.42578125" style="1" hidden="1"/>
-    <col min="757" max="757" width="11.42578125" style="1" hidden="1"/>
-    <col min="758" max="758" width="15.7109375" style="1" hidden="1"/>
-    <col min="759" max="759" width="21.85546875" style="1" hidden="1"/>
-    <col min="760" max="762" width="11.42578125" style="1" hidden="1"/>
+    <col min="508" max="508" width="20.5" style="1" hidden="1"/>
+    <col min="509" max="755" width="11.5" style="1" hidden="1"/>
+    <col min="756" max="756" width="15.5" style="1" hidden="1"/>
+    <col min="757" max="757" width="11.5" style="1" hidden="1"/>
+    <col min="758" max="758" width="15.6640625" style="1" hidden="1"/>
+    <col min="759" max="759" width="21.83203125" style="1" hidden="1"/>
+    <col min="760" max="762" width="11.5" style="1" hidden="1"/>
     <col min="763" max="763" width="16" style="1" hidden="1"/>
-    <col min="764" max="764" width="20.42578125" style="1" hidden="1"/>
-    <col min="765" max="1011" width="11.42578125" style="1" hidden="1"/>
-    <col min="1012" max="1012" width="15.42578125" style="1" hidden="1"/>
-    <col min="1013" max="1013" width="11.42578125" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="15.7109375" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="21.85546875" style="1" hidden="1"/>
-    <col min="1016" max="1018" width="11.42578125" style="1" hidden="1"/>
+    <col min="764" max="764" width="20.5" style="1" hidden="1"/>
+    <col min="765" max="1011" width="11.5" style="1" hidden="1"/>
+    <col min="1012" max="1012" width="15.5" style="1" hidden="1"/>
+    <col min="1013" max="1013" width="11.5" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="15.6640625" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="21.83203125" style="1" hidden="1"/>
+    <col min="1016" max="1018" width="11.5" style="1" hidden="1"/>
     <col min="1019" max="1019" width="16" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="20.42578125" style="1" hidden="1"/>
-    <col min="1021" max="1267" width="11.42578125" style="1" hidden="1"/>
-    <col min="1268" max="1268" width="15.42578125" style="1" hidden="1"/>
-    <col min="1269" max="1269" width="11.42578125" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="15.7109375" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="21.85546875" style="1" hidden="1"/>
-    <col min="1272" max="1274" width="11.42578125" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="20.5" style="1" hidden="1"/>
+    <col min="1021" max="1267" width="11.5" style="1" hidden="1"/>
+    <col min="1268" max="1268" width="15.5" style="1" hidden="1"/>
+    <col min="1269" max="1269" width="11.5" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="15.6640625" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="21.83203125" style="1" hidden="1"/>
+    <col min="1272" max="1274" width="11.5" style="1" hidden="1"/>
     <col min="1275" max="1275" width="16" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="20.42578125" style="1" hidden="1"/>
-    <col min="1277" max="1523" width="11.42578125" style="1" hidden="1"/>
-    <col min="1524" max="1524" width="15.42578125" style="1" hidden="1"/>
-    <col min="1525" max="1525" width="11.42578125" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="15.7109375" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="21.85546875" style="1" hidden="1"/>
-    <col min="1528" max="1530" width="11.42578125" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="20.5" style="1" hidden="1"/>
+    <col min="1277" max="1523" width="11.5" style="1" hidden="1"/>
+    <col min="1524" max="1524" width="15.5" style="1" hidden="1"/>
+    <col min="1525" max="1525" width="11.5" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="15.6640625" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="21.83203125" style="1" hidden="1"/>
+    <col min="1528" max="1530" width="11.5" style="1" hidden="1"/>
     <col min="1531" max="1531" width="16" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="20.42578125" style="1" hidden="1"/>
-    <col min="1533" max="1779" width="11.42578125" style="1" hidden="1"/>
-    <col min="1780" max="1780" width="15.42578125" style="1" hidden="1"/>
-    <col min="1781" max="1781" width="11.42578125" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="15.7109375" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="21.85546875" style="1" hidden="1"/>
-    <col min="1784" max="1786" width="11.42578125" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="20.5" style="1" hidden="1"/>
+    <col min="1533" max="1779" width="11.5" style="1" hidden="1"/>
+    <col min="1780" max="1780" width="15.5" style="1" hidden="1"/>
+    <col min="1781" max="1781" width="11.5" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="15.6640625" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="21.83203125" style="1" hidden="1"/>
+    <col min="1784" max="1786" width="11.5" style="1" hidden="1"/>
     <col min="1787" max="1787" width="16" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="20.42578125" style="1" hidden="1"/>
-    <col min="1789" max="2035" width="11.42578125" style="1" hidden="1"/>
-    <col min="2036" max="2036" width="15.42578125" style="1" hidden="1"/>
-    <col min="2037" max="2037" width="11.42578125" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="15.7109375" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="21.85546875" style="1" hidden="1"/>
-    <col min="2040" max="2042" width="11.42578125" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="20.5" style="1" hidden="1"/>
+    <col min="1789" max="2035" width="11.5" style="1" hidden="1"/>
+    <col min="2036" max="2036" width="15.5" style="1" hidden="1"/>
+    <col min="2037" max="2037" width="11.5" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="15.6640625" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="21.83203125" style="1" hidden="1"/>
+    <col min="2040" max="2042" width="11.5" style="1" hidden="1"/>
     <col min="2043" max="2043" width="16" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="20.42578125" style="1" hidden="1"/>
-    <col min="2045" max="2291" width="11.42578125" style="1" hidden="1"/>
-    <col min="2292" max="2292" width="15.42578125" style="1" hidden="1"/>
-    <col min="2293" max="2293" width="11.42578125" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="15.7109375" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="21.85546875" style="1" hidden="1"/>
-    <col min="2296" max="2298" width="11.42578125" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="20.5" style="1" hidden="1"/>
+    <col min="2045" max="2291" width="11.5" style="1" hidden="1"/>
+    <col min="2292" max="2292" width="15.5" style="1" hidden="1"/>
+    <col min="2293" max="2293" width="11.5" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="15.6640625" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="21.83203125" style="1" hidden="1"/>
+    <col min="2296" max="2298" width="11.5" style="1" hidden="1"/>
     <col min="2299" max="2299" width="16" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="20.42578125" style="1" hidden="1"/>
-    <col min="2301" max="2547" width="11.42578125" style="1" hidden="1"/>
-    <col min="2548" max="2548" width="15.42578125" style="1" hidden="1"/>
-    <col min="2549" max="2549" width="11.42578125" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="15.7109375" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="21.85546875" style="1" hidden="1"/>
-    <col min="2552" max="2554" width="11.42578125" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="20.5" style="1" hidden="1"/>
+    <col min="2301" max="2547" width="11.5" style="1" hidden="1"/>
+    <col min="2548" max="2548" width="15.5" style="1" hidden="1"/>
+    <col min="2549" max="2549" width="11.5" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="15.6640625" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="21.83203125" style="1" hidden="1"/>
+    <col min="2552" max="2554" width="11.5" style="1" hidden="1"/>
     <col min="2555" max="2555" width="16" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="20.42578125" style="1" hidden="1"/>
-    <col min="2557" max="2803" width="11.42578125" style="1" hidden="1"/>
-    <col min="2804" max="2804" width="15.42578125" style="1" hidden="1"/>
-    <col min="2805" max="2805" width="11.42578125" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="15.7109375" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="21.85546875" style="1" hidden="1"/>
-    <col min="2808" max="2810" width="11.42578125" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="20.5" style="1" hidden="1"/>
+    <col min="2557" max="2803" width="11.5" style="1" hidden="1"/>
+    <col min="2804" max="2804" width="15.5" style="1" hidden="1"/>
+    <col min="2805" max="2805" width="11.5" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="15.6640625" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="21.83203125" style="1" hidden="1"/>
+    <col min="2808" max="2810" width="11.5" style="1" hidden="1"/>
     <col min="2811" max="2811" width="16" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="20.42578125" style="1" hidden="1"/>
-    <col min="2813" max="3059" width="11.42578125" style="1" hidden="1"/>
-    <col min="3060" max="3060" width="15.42578125" style="1" hidden="1"/>
-    <col min="3061" max="3061" width="11.42578125" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="15.7109375" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="21.85546875" style="1" hidden="1"/>
-    <col min="3064" max="3066" width="11.42578125" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="20.5" style="1" hidden="1"/>
+    <col min="2813" max="3059" width="11.5" style="1" hidden="1"/>
+    <col min="3060" max="3060" width="15.5" style="1" hidden="1"/>
+    <col min="3061" max="3061" width="11.5" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="15.6640625" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="21.83203125" style="1" hidden="1"/>
+    <col min="3064" max="3066" width="11.5" style="1" hidden="1"/>
     <col min="3067" max="3067" width="16" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="20.42578125" style="1" hidden="1"/>
-    <col min="3069" max="3315" width="11.42578125" style="1" hidden="1"/>
-    <col min="3316" max="3316" width="15.42578125" style="1" hidden="1"/>
-    <col min="3317" max="3317" width="11.42578125" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="15.7109375" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="21.85546875" style="1" hidden="1"/>
-    <col min="3320" max="3322" width="11.42578125" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="20.5" style="1" hidden="1"/>
+    <col min="3069" max="3315" width="11.5" style="1" hidden="1"/>
+    <col min="3316" max="3316" width="15.5" style="1" hidden="1"/>
+    <col min="3317" max="3317" width="11.5" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="15.6640625" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="21.83203125" style="1" hidden="1"/>
+    <col min="3320" max="3322" width="11.5" style="1" hidden="1"/>
     <col min="3323" max="3323" width="16" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="20.42578125" style="1" hidden="1"/>
-    <col min="3325" max="3571" width="11.42578125" style="1" hidden="1"/>
-    <col min="3572" max="3572" width="15.42578125" style="1" hidden="1"/>
-    <col min="3573" max="3573" width="11.42578125" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="15.7109375" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="21.85546875" style="1" hidden="1"/>
-    <col min="3576" max="3578" width="11.42578125" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="20.5" style="1" hidden="1"/>
+    <col min="3325" max="3571" width="11.5" style="1" hidden="1"/>
+    <col min="3572" max="3572" width="15.5" style="1" hidden="1"/>
+    <col min="3573" max="3573" width="11.5" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="15.6640625" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="21.83203125" style="1" hidden="1"/>
+    <col min="3576" max="3578" width="11.5" style="1" hidden="1"/>
     <col min="3579" max="3579" width="16" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="20.42578125" style="1" hidden="1"/>
-    <col min="3581" max="3827" width="11.42578125" style="1" hidden="1"/>
-    <col min="3828" max="3828" width="15.42578125" style="1" hidden="1"/>
-    <col min="3829" max="3829" width="11.42578125" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="15.7109375" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="21.85546875" style="1" hidden="1"/>
-    <col min="3832" max="3834" width="11.42578125" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="20.5" style="1" hidden="1"/>
+    <col min="3581" max="3827" width="11.5" style="1" hidden="1"/>
+    <col min="3828" max="3828" width="15.5" style="1" hidden="1"/>
+    <col min="3829" max="3829" width="11.5" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="15.6640625" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="21.83203125" style="1" hidden="1"/>
+    <col min="3832" max="3834" width="11.5" style="1" hidden="1"/>
     <col min="3835" max="3835" width="16" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="20.42578125" style="1" hidden="1"/>
-    <col min="3837" max="4083" width="11.42578125" style="1" hidden="1"/>
-    <col min="4084" max="4084" width="15.42578125" style="1" hidden="1"/>
-    <col min="4085" max="4085" width="11.42578125" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="15.7109375" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="21.85546875" style="1" hidden="1"/>
-    <col min="4088" max="4090" width="11.42578125" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="20.5" style="1" hidden="1"/>
+    <col min="3837" max="4083" width="11.5" style="1" hidden="1"/>
+    <col min="4084" max="4084" width="15.5" style="1" hidden="1"/>
+    <col min="4085" max="4085" width="11.5" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="15.6640625" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="21.83203125" style="1" hidden="1"/>
+    <col min="4088" max="4090" width="11.5" style="1" hidden="1"/>
     <col min="4091" max="4091" width="16" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="20.42578125" style="1" hidden="1"/>
-    <col min="4093" max="4339" width="11.42578125" style="1" hidden="1"/>
-    <col min="4340" max="4340" width="15.42578125" style="1" hidden="1"/>
-    <col min="4341" max="4341" width="11.42578125" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="15.7109375" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="21.85546875" style="1" hidden="1"/>
-    <col min="4344" max="4346" width="11.42578125" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="20.5" style="1" hidden="1"/>
+    <col min="4093" max="4339" width="11.5" style="1" hidden="1"/>
+    <col min="4340" max="4340" width="15.5" style="1" hidden="1"/>
+    <col min="4341" max="4341" width="11.5" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="15.6640625" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="21.83203125" style="1" hidden="1"/>
+    <col min="4344" max="4346" width="11.5" style="1" hidden="1"/>
     <col min="4347" max="4347" width="16" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="20.42578125" style="1" hidden="1"/>
-    <col min="4349" max="4595" width="11.42578125" style="1" hidden="1"/>
-    <col min="4596" max="4596" width="15.42578125" style="1" hidden="1"/>
-    <col min="4597" max="4597" width="11.42578125" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="15.7109375" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="21.85546875" style="1" hidden="1"/>
-    <col min="4600" max="4602" width="11.42578125" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="20.5" style="1" hidden="1"/>
+    <col min="4349" max="4595" width="11.5" style="1" hidden="1"/>
+    <col min="4596" max="4596" width="15.5" style="1" hidden="1"/>
+    <col min="4597" max="4597" width="11.5" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="15.6640625" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="21.83203125" style="1" hidden="1"/>
+    <col min="4600" max="4602" width="11.5" style="1" hidden="1"/>
     <col min="4603" max="4603" width="16" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="20.42578125" style="1" hidden="1"/>
-    <col min="4605" max="4851" width="11.42578125" style="1" hidden="1"/>
-    <col min="4852" max="4852" width="15.42578125" style="1" hidden="1"/>
-    <col min="4853" max="4853" width="11.42578125" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="15.7109375" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="21.85546875" style="1" hidden="1"/>
-    <col min="4856" max="4858" width="11.42578125" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="20.5" style="1" hidden="1"/>
+    <col min="4605" max="4851" width="11.5" style="1" hidden="1"/>
+    <col min="4852" max="4852" width="15.5" style="1" hidden="1"/>
+    <col min="4853" max="4853" width="11.5" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="15.6640625" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="21.83203125" style="1" hidden="1"/>
+    <col min="4856" max="4858" width="11.5" style="1" hidden="1"/>
     <col min="4859" max="4859" width="16" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="20.42578125" style="1" hidden="1"/>
-    <col min="4861" max="5107" width="11.42578125" style="1" hidden="1"/>
-    <col min="5108" max="5108" width="15.42578125" style="1" hidden="1"/>
-    <col min="5109" max="5109" width="11.42578125" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="15.7109375" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="21.85546875" style="1" hidden="1"/>
-    <col min="5112" max="5114" width="11.42578125" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="20.5" style="1" hidden="1"/>
+    <col min="4861" max="5107" width="11.5" style="1" hidden="1"/>
+    <col min="5108" max="5108" width="15.5" style="1" hidden="1"/>
+    <col min="5109" max="5109" width="11.5" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="15.6640625" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="21.83203125" style="1" hidden="1"/>
+    <col min="5112" max="5114" width="11.5" style="1" hidden="1"/>
     <col min="5115" max="5115" width="16" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="20.42578125" style="1" hidden="1"/>
-    <col min="5117" max="5363" width="11.42578125" style="1" hidden="1"/>
-    <col min="5364" max="5364" width="15.42578125" style="1" hidden="1"/>
-    <col min="5365" max="5365" width="11.42578125" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="15.7109375" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="21.85546875" style="1" hidden="1"/>
-    <col min="5368" max="5370" width="11.42578125" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="20.5" style="1" hidden="1"/>
+    <col min="5117" max="5363" width="11.5" style="1" hidden="1"/>
+    <col min="5364" max="5364" width="15.5" style="1" hidden="1"/>
+    <col min="5365" max="5365" width="11.5" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="15.6640625" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="21.83203125" style="1" hidden="1"/>
+    <col min="5368" max="5370" width="11.5" style="1" hidden="1"/>
     <col min="5371" max="5371" width="16" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="20.42578125" style="1" hidden="1"/>
-    <col min="5373" max="5619" width="11.42578125" style="1" hidden="1"/>
-    <col min="5620" max="5620" width="15.42578125" style="1" hidden="1"/>
-    <col min="5621" max="5621" width="11.42578125" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="15.7109375" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="21.85546875" style="1" hidden="1"/>
-    <col min="5624" max="5626" width="11.42578125" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="20.5" style="1" hidden="1"/>
+    <col min="5373" max="5619" width="11.5" style="1" hidden="1"/>
+    <col min="5620" max="5620" width="15.5" style="1" hidden="1"/>
+    <col min="5621" max="5621" width="11.5" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="15.6640625" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="21.83203125" style="1" hidden="1"/>
+    <col min="5624" max="5626" width="11.5" style="1" hidden="1"/>
     <col min="5627" max="5627" width="16" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="20.42578125" style="1" hidden="1"/>
-    <col min="5629" max="5875" width="11.42578125" style="1" hidden="1"/>
-    <col min="5876" max="5876" width="15.42578125" style="1" hidden="1"/>
-    <col min="5877" max="5877" width="11.42578125" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="15.7109375" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="21.85546875" style="1" hidden="1"/>
-    <col min="5880" max="5882" width="11.42578125" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="20.5" style="1" hidden="1"/>
+    <col min="5629" max="5875" width="11.5" style="1" hidden="1"/>
+    <col min="5876" max="5876" width="15.5" style="1" hidden="1"/>
+    <col min="5877" max="5877" width="11.5" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="15.6640625" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="21.83203125" style="1" hidden="1"/>
+    <col min="5880" max="5882" width="11.5" style="1" hidden="1"/>
     <col min="5883" max="5883" width="16" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="20.42578125" style="1" hidden="1"/>
-    <col min="5885" max="6131" width="11.42578125" style="1" hidden="1"/>
-    <col min="6132" max="6132" width="15.42578125" style="1" hidden="1"/>
-    <col min="6133" max="6133" width="11.42578125" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="15.7109375" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="21.85546875" style="1" hidden="1"/>
-    <col min="6136" max="6138" width="11.42578125" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="20.5" style="1" hidden="1"/>
+    <col min="5885" max="6131" width="11.5" style="1" hidden="1"/>
+    <col min="6132" max="6132" width="15.5" style="1" hidden="1"/>
+    <col min="6133" max="6133" width="11.5" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="15.6640625" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="21.83203125" style="1" hidden="1"/>
+    <col min="6136" max="6138" width="11.5" style="1" hidden="1"/>
     <col min="6139" max="6139" width="16" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="20.42578125" style="1" hidden="1"/>
-    <col min="6141" max="6387" width="11.42578125" style="1" hidden="1"/>
-    <col min="6388" max="6388" width="15.42578125" style="1" hidden="1"/>
-    <col min="6389" max="6389" width="11.42578125" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="15.7109375" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="21.85546875" style="1" hidden="1"/>
-    <col min="6392" max="6394" width="11.42578125" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="20.5" style="1" hidden="1"/>
+    <col min="6141" max="6387" width="11.5" style="1" hidden="1"/>
+    <col min="6388" max="6388" width="15.5" style="1" hidden="1"/>
+    <col min="6389" max="6389" width="11.5" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="15.6640625" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="21.83203125" style="1" hidden="1"/>
+    <col min="6392" max="6394" width="11.5" style="1" hidden="1"/>
     <col min="6395" max="6395" width="16" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="20.42578125" style="1" hidden="1"/>
-    <col min="6397" max="6643" width="11.42578125" style="1" hidden="1"/>
-    <col min="6644" max="6644" width="15.42578125" style="1" hidden="1"/>
-    <col min="6645" max="6645" width="11.42578125" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="15.7109375" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="21.85546875" style="1" hidden="1"/>
-    <col min="6648" max="6650" width="11.42578125" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="20.5" style="1" hidden="1"/>
+    <col min="6397" max="6643" width="11.5" style="1" hidden="1"/>
+    <col min="6644" max="6644" width="15.5" style="1" hidden="1"/>
+    <col min="6645" max="6645" width="11.5" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="15.6640625" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="21.83203125" style="1" hidden="1"/>
+    <col min="6648" max="6650" width="11.5" style="1" hidden="1"/>
     <col min="6651" max="6651" width="16" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="20.42578125" style="1" hidden="1"/>
-    <col min="6653" max="6899" width="11.42578125" style="1" hidden="1"/>
-    <col min="6900" max="6900" width="15.42578125" style="1" hidden="1"/>
-    <col min="6901" max="6901" width="11.42578125" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="15.7109375" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="21.85546875" style="1" hidden="1"/>
-    <col min="6904" max="6906" width="11.42578125" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="20.5" style="1" hidden="1"/>
+    <col min="6653" max="6899" width="11.5" style="1" hidden="1"/>
+    <col min="6900" max="6900" width="15.5" style="1" hidden="1"/>
+    <col min="6901" max="6901" width="11.5" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="15.6640625" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="21.83203125" style="1" hidden="1"/>
+    <col min="6904" max="6906" width="11.5" style="1" hidden="1"/>
     <col min="6907" max="6907" width="16" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="20.42578125" style="1" hidden="1"/>
-    <col min="6909" max="7155" width="11.42578125" style="1" hidden="1"/>
-    <col min="7156" max="7156" width="15.42578125" style="1" hidden="1"/>
-    <col min="7157" max="7157" width="11.42578125" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="15.7109375" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="21.85546875" style="1" hidden="1"/>
-    <col min="7160" max="7162" width="11.42578125" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="20.5" style="1" hidden="1"/>
+    <col min="6909" max="7155" width="11.5" style="1" hidden="1"/>
+    <col min="7156" max="7156" width="15.5" style="1" hidden="1"/>
+    <col min="7157" max="7157" width="11.5" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="15.6640625" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="21.83203125" style="1" hidden="1"/>
+    <col min="7160" max="7162" width="11.5" style="1" hidden="1"/>
     <col min="7163" max="7163" width="16" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="20.42578125" style="1" hidden="1"/>
-    <col min="7165" max="7411" width="11.42578125" style="1" hidden="1"/>
-    <col min="7412" max="7412" width="15.42578125" style="1" hidden="1"/>
-    <col min="7413" max="7413" width="11.42578125" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="15.7109375" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="21.85546875" style="1" hidden="1"/>
-    <col min="7416" max="7418" width="11.42578125" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="20.5" style="1" hidden="1"/>
+    <col min="7165" max="7411" width="11.5" style="1" hidden="1"/>
+    <col min="7412" max="7412" width="15.5" style="1" hidden="1"/>
+    <col min="7413" max="7413" width="11.5" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="15.6640625" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="21.83203125" style="1" hidden="1"/>
+    <col min="7416" max="7418" width="11.5" style="1" hidden="1"/>
     <col min="7419" max="7419" width="16" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="20.42578125" style="1" hidden="1"/>
-    <col min="7421" max="7667" width="11.42578125" style="1" hidden="1"/>
-    <col min="7668" max="7668" width="15.42578125" style="1" hidden="1"/>
-    <col min="7669" max="7669" width="11.42578125" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="15.7109375" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="21.85546875" style="1" hidden="1"/>
-    <col min="7672" max="7674" width="11.42578125" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="20.5" style="1" hidden="1"/>
+    <col min="7421" max="7667" width="11.5" style="1" hidden="1"/>
+    <col min="7668" max="7668" width="15.5" style="1" hidden="1"/>
+    <col min="7669" max="7669" width="11.5" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="15.6640625" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="21.83203125" style="1" hidden="1"/>
+    <col min="7672" max="7674" width="11.5" style="1" hidden="1"/>
     <col min="7675" max="7675" width="16" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="20.42578125" style="1" hidden="1"/>
-    <col min="7677" max="7923" width="11.42578125" style="1" hidden="1"/>
-    <col min="7924" max="7924" width="15.42578125" style="1" hidden="1"/>
-    <col min="7925" max="7925" width="11.42578125" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="15.7109375" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="21.85546875" style="1" hidden="1"/>
-    <col min="7928" max="7930" width="11.42578125" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="20.5" style="1" hidden="1"/>
+    <col min="7677" max="7923" width="11.5" style="1" hidden="1"/>
+    <col min="7924" max="7924" width="15.5" style="1" hidden="1"/>
+    <col min="7925" max="7925" width="11.5" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="15.6640625" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="21.83203125" style="1" hidden="1"/>
+    <col min="7928" max="7930" width="11.5" style="1" hidden="1"/>
     <col min="7931" max="7931" width="16" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="20.42578125" style="1" hidden="1"/>
-    <col min="7933" max="8179" width="11.42578125" style="1" hidden="1"/>
-    <col min="8180" max="8180" width="15.42578125" style="1" hidden="1"/>
-    <col min="8181" max="8181" width="11.42578125" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="15.7109375" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="21.85546875" style="1" hidden="1"/>
-    <col min="8184" max="8186" width="11.42578125" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="20.5" style="1" hidden="1"/>
+    <col min="7933" max="8179" width="11.5" style="1" hidden="1"/>
+    <col min="8180" max="8180" width="15.5" style="1" hidden="1"/>
+    <col min="8181" max="8181" width="11.5" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="15.6640625" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="21.83203125" style="1" hidden="1"/>
+    <col min="8184" max="8186" width="11.5" style="1" hidden="1"/>
     <col min="8187" max="8187" width="16" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="20.42578125" style="1" hidden="1"/>
-    <col min="8189" max="8435" width="11.42578125" style="1" hidden="1"/>
-    <col min="8436" max="8436" width="15.42578125" style="1" hidden="1"/>
-    <col min="8437" max="8437" width="11.42578125" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="15.7109375" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="21.85546875" style="1" hidden="1"/>
-    <col min="8440" max="8442" width="11.42578125" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="20.5" style="1" hidden="1"/>
+    <col min="8189" max="8435" width="11.5" style="1" hidden="1"/>
+    <col min="8436" max="8436" width="15.5" style="1" hidden="1"/>
+    <col min="8437" max="8437" width="11.5" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="15.6640625" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="21.83203125" style="1" hidden="1"/>
+    <col min="8440" max="8442" width="11.5" style="1" hidden="1"/>
     <col min="8443" max="8443" width="16" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="20.42578125" style="1" hidden="1"/>
-    <col min="8445" max="8691" width="11.42578125" style="1" hidden="1"/>
-    <col min="8692" max="8692" width="15.42578125" style="1" hidden="1"/>
-    <col min="8693" max="8693" width="11.42578125" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="15.7109375" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="21.85546875" style="1" hidden="1"/>
-    <col min="8696" max="8698" width="11.42578125" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="20.5" style="1" hidden="1"/>
+    <col min="8445" max="8691" width="11.5" style="1" hidden="1"/>
+    <col min="8692" max="8692" width="15.5" style="1" hidden="1"/>
+    <col min="8693" max="8693" width="11.5" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="15.6640625" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="21.83203125" style="1" hidden="1"/>
+    <col min="8696" max="8698" width="11.5" style="1" hidden="1"/>
     <col min="8699" max="8699" width="16" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="20.42578125" style="1" hidden="1"/>
-    <col min="8701" max="8947" width="11.42578125" style="1" hidden="1"/>
-    <col min="8948" max="8948" width="15.42578125" style="1" hidden="1"/>
-    <col min="8949" max="8949" width="11.42578125" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="15.7109375" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="21.85546875" style="1" hidden="1"/>
-    <col min="8952" max="8954" width="11.42578125" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="20.5" style="1" hidden="1"/>
+    <col min="8701" max="8947" width="11.5" style="1" hidden="1"/>
+    <col min="8948" max="8948" width="15.5" style="1" hidden="1"/>
+    <col min="8949" max="8949" width="11.5" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="15.6640625" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="21.83203125" style="1" hidden="1"/>
+    <col min="8952" max="8954" width="11.5" style="1" hidden="1"/>
     <col min="8955" max="8955" width="16" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="20.42578125" style="1" hidden="1"/>
-    <col min="8957" max="9203" width="11.42578125" style="1" hidden="1"/>
-    <col min="9204" max="9204" width="15.42578125" style="1" hidden="1"/>
-    <col min="9205" max="9205" width="11.42578125" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="15.7109375" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="21.85546875" style="1" hidden="1"/>
-    <col min="9208" max="9210" width="11.42578125" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="20.5" style="1" hidden="1"/>
+    <col min="8957" max="9203" width="11.5" style="1" hidden="1"/>
+    <col min="9204" max="9204" width="15.5" style="1" hidden="1"/>
+    <col min="9205" max="9205" width="11.5" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="15.6640625" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="21.83203125" style="1" hidden="1"/>
+    <col min="9208" max="9210" width="11.5" style="1" hidden="1"/>
     <col min="9211" max="9211" width="16" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="20.42578125" style="1" hidden="1"/>
-    <col min="9213" max="9459" width="11.42578125" style="1" hidden="1"/>
-    <col min="9460" max="9460" width="15.42578125" style="1" hidden="1"/>
-    <col min="9461" max="9461" width="11.42578125" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="15.7109375" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="21.85546875" style="1" hidden="1"/>
-    <col min="9464" max="9466" width="11.42578125" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="20.5" style="1" hidden="1"/>
+    <col min="9213" max="9459" width="11.5" style="1" hidden="1"/>
+    <col min="9460" max="9460" width="15.5" style="1" hidden="1"/>
+    <col min="9461" max="9461" width="11.5" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="15.6640625" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="21.83203125" style="1" hidden="1"/>
+    <col min="9464" max="9466" width="11.5" style="1" hidden="1"/>
     <col min="9467" max="9467" width="16" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="20.42578125" style="1" hidden="1"/>
-    <col min="9469" max="9715" width="11.42578125" style="1" hidden="1"/>
-    <col min="9716" max="9716" width="15.42578125" style="1" hidden="1"/>
-    <col min="9717" max="9717" width="11.42578125" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="15.7109375" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="21.85546875" style="1" hidden="1"/>
-    <col min="9720" max="9722" width="11.42578125" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="20.5" style="1" hidden="1"/>
+    <col min="9469" max="9715" width="11.5" style="1" hidden="1"/>
+    <col min="9716" max="9716" width="15.5" style="1" hidden="1"/>
+    <col min="9717" max="9717" width="11.5" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="15.6640625" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="21.83203125" style="1" hidden="1"/>
+    <col min="9720" max="9722" width="11.5" style="1" hidden="1"/>
     <col min="9723" max="9723" width="16" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="20.42578125" style="1" hidden="1"/>
-    <col min="9725" max="9971" width="11.42578125" style="1" hidden="1"/>
-    <col min="9972" max="9972" width="15.42578125" style="1" hidden="1"/>
-    <col min="9973" max="9973" width="11.42578125" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="15.7109375" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="21.85546875" style="1" hidden="1"/>
-    <col min="9976" max="9978" width="11.42578125" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="20.5" style="1" hidden="1"/>
+    <col min="9725" max="9971" width="11.5" style="1" hidden="1"/>
+    <col min="9972" max="9972" width="15.5" style="1" hidden="1"/>
+    <col min="9973" max="9973" width="11.5" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="15.6640625" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="21.83203125" style="1" hidden="1"/>
+    <col min="9976" max="9978" width="11.5" style="1" hidden="1"/>
     <col min="9979" max="9979" width="16" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="20.42578125" style="1" hidden="1"/>
-    <col min="9981" max="10227" width="11.42578125" style="1" hidden="1"/>
-    <col min="10228" max="10228" width="15.42578125" style="1" hidden="1"/>
-    <col min="10229" max="10229" width="11.42578125" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="15.7109375" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="21.85546875" style="1" hidden="1"/>
-    <col min="10232" max="10234" width="11.42578125" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="20.5" style="1" hidden="1"/>
+    <col min="9981" max="10227" width="11.5" style="1" hidden="1"/>
+    <col min="10228" max="10228" width="15.5" style="1" hidden="1"/>
+    <col min="10229" max="10229" width="11.5" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="15.6640625" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="21.83203125" style="1" hidden="1"/>
+    <col min="10232" max="10234" width="11.5" style="1" hidden="1"/>
     <col min="10235" max="10235" width="16" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="20.42578125" style="1" hidden="1"/>
-    <col min="10237" max="10483" width="11.42578125" style="1" hidden="1"/>
-    <col min="10484" max="10484" width="15.42578125" style="1" hidden="1"/>
-    <col min="10485" max="10485" width="11.42578125" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="15.7109375" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="21.85546875" style="1" hidden="1"/>
-    <col min="10488" max="10490" width="11.42578125" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="20.5" style="1" hidden="1"/>
+    <col min="10237" max="10483" width="11.5" style="1" hidden="1"/>
+    <col min="10484" max="10484" width="15.5" style="1" hidden="1"/>
+    <col min="10485" max="10485" width="11.5" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="15.6640625" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="21.83203125" style="1" hidden="1"/>
+    <col min="10488" max="10490" width="11.5" style="1" hidden="1"/>
     <col min="10491" max="10491" width="16" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="20.42578125" style="1" hidden="1"/>
-    <col min="10493" max="10739" width="11.42578125" style="1" hidden="1"/>
-    <col min="10740" max="10740" width="15.42578125" style="1" hidden="1"/>
-    <col min="10741" max="10741" width="11.42578125" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="15.7109375" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="21.85546875" style="1" hidden="1"/>
-    <col min="10744" max="10746" width="11.42578125" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="20.5" style="1" hidden="1"/>
+    <col min="10493" max="10739" width="11.5" style="1" hidden="1"/>
+    <col min="10740" max="10740" width="15.5" style="1" hidden="1"/>
+    <col min="10741" max="10741" width="11.5" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="15.6640625" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="21.83203125" style="1" hidden="1"/>
+    <col min="10744" max="10746" width="11.5" style="1" hidden="1"/>
     <col min="10747" max="10747" width="16" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="20.42578125" style="1" hidden="1"/>
-    <col min="10749" max="10995" width="11.42578125" style="1" hidden="1"/>
-    <col min="10996" max="10996" width="15.42578125" style="1" hidden="1"/>
-    <col min="10997" max="10997" width="11.42578125" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="15.7109375" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="21.85546875" style="1" hidden="1"/>
-    <col min="11000" max="11002" width="11.42578125" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="20.5" style="1" hidden="1"/>
+    <col min="10749" max="10995" width="11.5" style="1" hidden="1"/>
+    <col min="10996" max="10996" width="15.5" style="1" hidden="1"/>
+    <col min="10997" max="10997" width="11.5" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="15.6640625" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="21.83203125" style="1" hidden="1"/>
+    <col min="11000" max="11002" width="11.5" style="1" hidden="1"/>
     <col min="11003" max="11003" width="16" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="20.42578125" style="1" hidden="1"/>
-    <col min="11005" max="11251" width="11.42578125" style="1" hidden="1"/>
-    <col min="11252" max="11252" width="15.42578125" style="1" hidden="1"/>
-    <col min="11253" max="11253" width="11.42578125" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="15.7109375" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="21.85546875" style="1" hidden="1"/>
-    <col min="11256" max="11258" width="11.42578125" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="20.5" style="1" hidden="1"/>
+    <col min="11005" max="11251" width="11.5" style="1" hidden="1"/>
+    <col min="11252" max="11252" width="15.5" style="1" hidden="1"/>
+    <col min="11253" max="11253" width="11.5" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="15.6640625" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="21.83203125" style="1" hidden="1"/>
+    <col min="11256" max="11258" width="11.5" style="1" hidden="1"/>
     <col min="11259" max="11259" width="16" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="20.42578125" style="1" hidden="1"/>
-    <col min="11261" max="11507" width="11.42578125" style="1" hidden="1"/>
-    <col min="11508" max="11508" width="15.42578125" style="1" hidden="1"/>
-    <col min="11509" max="11509" width="11.42578125" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="15.7109375" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="21.85546875" style="1" hidden="1"/>
-    <col min="11512" max="11514" width="11.42578125" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="20.5" style="1" hidden="1"/>
+    <col min="11261" max="11507" width="11.5" style="1" hidden="1"/>
+    <col min="11508" max="11508" width="15.5" style="1" hidden="1"/>
+    <col min="11509" max="11509" width="11.5" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="15.6640625" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="21.83203125" style="1" hidden="1"/>
+    <col min="11512" max="11514" width="11.5" style="1" hidden="1"/>
     <col min="11515" max="11515" width="16" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="20.42578125" style="1" hidden="1"/>
-    <col min="11517" max="11763" width="11.42578125" style="1" hidden="1"/>
-    <col min="11764" max="11764" width="15.42578125" style="1" hidden="1"/>
-    <col min="11765" max="11765" width="11.42578125" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="15.7109375" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="21.85546875" style="1" hidden="1"/>
-    <col min="11768" max="11770" width="11.42578125" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="20.5" style="1" hidden="1"/>
+    <col min="11517" max="11763" width="11.5" style="1" hidden="1"/>
+    <col min="11764" max="11764" width="15.5" style="1" hidden="1"/>
+    <col min="11765" max="11765" width="11.5" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="15.6640625" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="21.83203125" style="1" hidden="1"/>
+    <col min="11768" max="11770" width="11.5" style="1" hidden="1"/>
     <col min="11771" max="11771" width="16" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="20.42578125" style="1" hidden="1"/>
-    <col min="11773" max="12019" width="11.42578125" style="1" hidden="1"/>
-    <col min="12020" max="12020" width="15.42578125" style="1" hidden="1"/>
-    <col min="12021" max="12021" width="11.42578125" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="15.7109375" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="21.85546875" style="1" hidden="1"/>
-    <col min="12024" max="12026" width="11.42578125" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="20.5" style="1" hidden="1"/>
+    <col min="11773" max="12019" width="11.5" style="1" hidden="1"/>
+    <col min="12020" max="12020" width="15.5" style="1" hidden="1"/>
+    <col min="12021" max="12021" width="11.5" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="15.6640625" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="21.83203125" style="1" hidden="1"/>
+    <col min="12024" max="12026" width="11.5" style="1" hidden="1"/>
     <col min="12027" max="12027" width="16" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="20.42578125" style="1" hidden="1"/>
-    <col min="12029" max="12275" width="11.42578125" style="1" hidden="1"/>
-    <col min="12276" max="12276" width="15.42578125" style="1" hidden="1"/>
-    <col min="12277" max="12277" width="11.42578125" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="15.7109375" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="21.85546875" style="1" hidden="1"/>
-    <col min="12280" max="12282" width="11.42578125" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="20.5" style="1" hidden="1"/>
+    <col min="12029" max="12275" width="11.5" style="1" hidden="1"/>
+    <col min="12276" max="12276" width="15.5" style="1" hidden="1"/>
+    <col min="12277" max="12277" width="11.5" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="15.6640625" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="21.83203125" style="1" hidden="1"/>
+    <col min="12280" max="12282" width="11.5" style="1" hidden="1"/>
     <col min="12283" max="12283" width="16" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="20.42578125" style="1" hidden="1"/>
-    <col min="12285" max="12531" width="11.42578125" style="1" hidden="1"/>
-    <col min="12532" max="12532" width="15.42578125" style="1" hidden="1"/>
-    <col min="12533" max="12533" width="11.42578125" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="15.7109375" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="21.85546875" style="1" hidden="1"/>
-    <col min="12536" max="12538" width="11.42578125" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="20.5" style="1" hidden="1"/>
+    <col min="12285" max="12531" width="11.5" style="1" hidden="1"/>
+    <col min="12532" max="12532" width="15.5" style="1" hidden="1"/>
+    <col min="12533" max="12533" width="11.5" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="15.6640625" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="21.83203125" style="1" hidden="1"/>
+    <col min="12536" max="12538" width="11.5" style="1" hidden="1"/>
     <col min="12539" max="12539" width="16" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="20.42578125" style="1" hidden="1"/>
-    <col min="12541" max="12787" width="11.42578125" style="1" hidden="1"/>
-    <col min="12788" max="12788" width="15.42578125" style="1" hidden="1"/>
-    <col min="12789" max="12789" width="11.42578125" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="15.7109375" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="21.85546875" style="1" hidden="1"/>
-    <col min="12792" max="12794" width="11.42578125" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="20.5" style="1" hidden="1"/>
+    <col min="12541" max="12787" width="11.5" style="1" hidden="1"/>
+    <col min="12788" max="12788" width="15.5" style="1" hidden="1"/>
+    <col min="12789" max="12789" width="11.5" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="15.6640625" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="21.83203125" style="1" hidden="1"/>
+    <col min="12792" max="12794" width="11.5" style="1" hidden="1"/>
     <col min="12795" max="12795" width="16" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="20.42578125" style="1" hidden="1"/>
-    <col min="12797" max="13043" width="11.42578125" style="1" hidden="1"/>
-    <col min="13044" max="13044" width="15.42578125" style="1" hidden="1"/>
-    <col min="13045" max="13045" width="11.42578125" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="15.7109375" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="21.85546875" style="1" hidden="1"/>
-    <col min="13048" max="13050" width="11.42578125" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="20.5" style="1" hidden="1"/>
+    <col min="12797" max="13043" width="11.5" style="1" hidden="1"/>
+    <col min="13044" max="13044" width="15.5" style="1" hidden="1"/>
+    <col min="13045" max="13045" width="11.5" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="15.6640625" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="21.83203125" style="1" hidden="1"/>
+    <col min="13048" max="13050" width="11.5" style="1" hidden="1"/>
     <col min="13051" max="13051" width="16" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="20.42578125" style="1" hidden="1"/>
-    <col min="13053" max="13299" width="11.42578125" style="1" hidden="1"/>
-    <col min="13300" max="13300" width="15.42578125" style="1" hidden="1"/>
-    <col min="13301" max="13301" width="11.42578125" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="15.7109375" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="21.85546875" style="1" hidden="1"/>
-    <col min="13304" max="13306" width="11.42578125" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="20.5" style="1" hidden="1"/>
+    <col min="13053" max="13299" width="11.5" style="1" hidden="1"/>
+    <col min="13300" max="13300" width="15.5" style="1" hidden="1"/>
+    <col min="13301" max="13301" width="11.5" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="15.6640625" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="21.83203125" style="1" hidden="1"/>
+    <col min="13304" max="13306" width="11.5" style="1" hidden="1"/>
     <col min="13307" max="13307" width="16" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="20.42578125" style="1" hidden="1"/>
-    <col min="13309" max="13555" width="11.42578125" style="1" hidden="1"/>
-    <col min="13556" max="13556" width="15.42578125" style="1" hidden="1"/>
-    <col min="13557" max="13557" width="11.42578125" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="15.7109375" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="21.85546875" style="1" hidden="1"/>
-    <col min="13560" max="13562" width="11.42578125" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="20.5" style="1" hidden="1"/>
+    <col min="13309" max="13555" width="11.5" style="1" hidden="1"/>
+    <col min="13556" max="13556" width="15.5" style="1" hidden="1"/>
+    <col min="13557" max="13557" width="11.5" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="15.6640625" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="21.83203125" style="1" hidden="1"/>
+    <col min="13560" max="13562" width="11.5" style="1" hidden="1"/>
     <col min="13563" max="13563" width="16" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="20.42578125" style="1" hidden="1"/>
-    <col min="13565" max="13811" width="11.42578125" style="1" hidden="1"/>
-    <col min="13812" max="13812" width="15.42578125" style="1" hidden="1"/>
-    <col min="13813" max="13813" width="11.42578125" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="15.7109375" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="21.85546875" style="1" hidden="1"/>
-    <col min="13816" max="13818" width="11.42578125" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="20.5" style="1" hidden="1"/>
+    <col min="13565" max="13811" width="11.5" style="1" hidden="1"/>
+    <col min="13812" max="13812" width="15.5" style="1" hidden="1"/>
+    <col min="13813" max="13813" width="11.5" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="15.6640625" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="21.83203125" style="1" hidden="1"/>
+    <col min="13816" max="13818" width="11.5" style="1" hidden="1"/>
     <col min="13819" max="13819" width="16" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="20.42578125" style="1" hidden="1"/>
-    <col min="13821" max="14067" width="11.42578125" style="1" hidden="1"/>
-    <col min="14068" max="14068" width="15.42578125" style="1" hidden="1"/>
-    <col min="14069" max="14069" width="11.42578125" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="15.7109375" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="21.85546875" style="1" hidden="1"/>
-    <col min="14072" max="14074" width="11.42578125" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="20.5" style="1" hidden="1"/>
+    <col min="13821" max="14067" width="11.5" style="1" hidden="1"/>
+    <col min="14068" max="14068" width="15.5" style="1" hidden="1"/>
+    <col min="14069" max="14069" width="11.5" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="15.6640625" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="21.83203125" style="1" hidden="1"/>
+    <col min="14072" max="14074" width="11.5" style="1" hidden="1"/>
     <col min="14075" max="14075" width="16" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="20.42578125" style="1" hidden="1"/>
-    <col min="14077" max="14323" width="11.42578125" style="1" hidden="1"/>
-    <col min="14324" max="14324" width="15.42578125" style="1" hidden="1"/>
-    <col min="14325" max="14325" width="11.42578125" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="15.7109375" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="21.85546875" style="1" hidden="1"/>
-    <col min="14328" max="14330" width="11.42578125" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="20.5" style="1" hidden="1"/>
+    <col min="14077" max="14323" width="11.5" style="1" hidden="1"/>
+    <col min="14324" max="14324" width="15.5" style="1" hidden="1"/>
+    <col min="14325" max="14325" width="11.5" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="15.6640625" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="21.83203125" style="1" hidden="1"/>
+    <col min="14328" max="14330" width="11.5" style="1" hidden="1"/>
     <col min="14331" max="14331" width="16" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="20.42578125" style="1" hidden="1"/>
-    <col min="14333" max="14579" width="11.42578125" style="1" hidden="1"/>
-    <col min="14580" max="14580" width="15.42578125" style="1" hidden="1"/>
-    <col min="14581" max="14581" width="11.42578125" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="15.7109375" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="21.85546875" style="1" hidden="1"/>
-    <col min="14584" max="14586" width="11.42578125" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="20.5" style="1" hidden="1"/>
+    <col min="14333" max="14579" width="11.5" style="1" hidden="1"/>
+    <col min="14580" max="14580" width="15.5" style="1" hidden="1"/>
+    <col min="14581" max="14581" width="11.5" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="15.6640625" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="21.83203125" style="1" hidden="1"/>
+    <col min="14584" max="14586" width="11.5" style="1" hidden="1"/>
     <col min="14587" max="14587" width="16" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="20.42578125" style="1" hidden="1"/>
-    <col min="14589" max="14835" width="11.42578125" style="1" hidden="1"/>
-    <col min="14836" max="14836" width="15.42578125" style="1" hidden="1"/>
-    <col min="14837" max="14837" width="11.42578125" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="15.7109375" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="21.85546875" style="1" hidden="1"/>
-    <col min="14840" max="14842" width="11.42578125" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="20.5" style="1" hidden="1"/>
+    <col min="14589" max="14835" width="11.5" style="1" hidden="1"/>
+    <col min="14836" max="14836" width="15.5" style="1" hidden="1"/>
+    <col min="14837" max="14837" width="11.5" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="15.6640625" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="21.83203125" style="1" hidden="1"/>
+    <col min="14840" max="14842" width="11.5" style="1" hidden="1"/>
     <col min="14843" max="14843" width="16" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="20.42578125" style="1" hidden="1"/>
-    <col min="14845" max="15091" width="11.42578125" style="1" hidden="1"/>
-    <col min="15092" max="15092" width="15.42578125" style="1" hidden="1"/>
-    <col min="15093" max="15093" width="11.42578125" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="15.7109375" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="21.85546875" style="1" hidden="1"/>
-    <col min="15096" max="15098" width="11.42578125" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="20.5" style="1" hidden="1"/>
+    <col min="14845" max="15091" width="11.5" style="1" hidden="1"/>
+    <col min="15092" max="15092" width="15.5" style="1" hidden="1"/>
+    <col min="15093" max="15093" width="11.5" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="15.6640625" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="21.83203125" style="1" hidden="1"/>
+    <col min="15096" max="15098" width="11.5" style="1" hidden="1"/>
     <col min="15099" max="15099" width="16" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="20.42578125" style="1" hidden="1"/>
-    <col min="15101" max="15347" width="11.42578125" style="1" hidden="1"/>
-    <col min="15348" max="15348" width="15.42578125" style="1" hidden="1"/>
-    <col min="15349" max="15349" width="11.42578125" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="15.7109375" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="21.85546875" style="1" hidden="1"/>
-    <col min="15352" max="15354" width="11.42578125" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="20.5" style="1" hidden="1"/>
+    <col min="15101" max="15347" width="11.5" style="1" hidden="1"/>
+    <col min="15348" max="15348" width="15.5" style="1" hidden="1"/>
+    <col min="15349" max="15349" width="11.5" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="15.6640625" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="21.83203125" style="1" hidden="1"/>
+    <col min="15352" max="15354" width="11.5" style="1" hidden="1"/>
     <col min="15355" max="15355" width="16" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="20.42578125" style="1" hidden="1"/>
-    <col min="15357" max="15603" width="11.42578125" style="1" hidden="1"/>
-    <col min="15604" max="15604" width="15.42578125" style="1" hidden="1"/>
-    <col min="15605" max="15605" width="11.42578125" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="15.7109375" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="21.85546875" style="1" hidden="1"/>
-    <col min="15608" max="15610" width="11.42578125" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="20.5" style="1" hidden="1"/>
+    <col min="15357" max="15603" width="11.5" style="1" hidden="1"/>
+    <col min="15604" max="15604" width="15.5" style="1" hidden="1"/>
+    <col min="15605" max="15605" width="11.5" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="15.6640625" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="21.83203125" style="1" hidden="1"/>
+    <col min="15608" max="15610" width="11.5" style="1" hidden="1"/>
     <col min="15611" max="15611" width="16" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="20.42578125" style="1" hidden="1"/>
-    <col min="15613" max="15859" width="11.42578125" style="1" hidden="1"/>
-    <col min="15860" max="15860" width="15.42578125" style="1" hidden="1"/>
-    <col min="15861" max="15861" width="11.42578125" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="15.7109375" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="21.85546875" style="1" hidden="1"/>
-    <col min="15864" max="15866" width="11.42578125" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="20.5" style="1" hidden="1"/>
+    <col min="15613" max="15859" width="11.5" style="1" hidden="1"/>
+    <col min="15860" max="15860" width="15.5" style="1" hidden="1"/>
+    <col min="15861" max="15861" width="11.5" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="15.6640625" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="21.83203125" style="1" hidden="1"/>
+    <col min="15864" max="15866" width="11.5" style="1" hidden="1"/>
     <col min="15867" max="15867" width="16" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="20.42578125" style="1" hidden="1"/>
-    <col min="15869" max="16115" width="11.42578125" style="1" hidden="1"/>
-    <col min="16116" max="16116" width="15.42578125" style="1" hidden="1"/>
-    <col min="16117" max="16117" width="11.42578125" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="15.7109375" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="21.85546875" style="1" hidden="1"/>
-    <col min="16120" max="16122" width="11.42578125" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="20.5" style="1" hidden="1"/>
+    <col min="15869" max="16115" width="11.5" style="1" hidden="1"/>
+    <col min="16116" max="16116" width="15.5" style="1" hidden="1"/>
+    <col min="16117" max="16117" width="11.5" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="15.6640625" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="21.83203125" style="1" hidden="1"/>
+    <col min="16120" max="16122" width="11.5" style="1" hidden="1"/>
     <col min="16123" max="16123" width="16" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="20.42578125" style="1" hidden="1"/>
-    <col min="16125" max="16127" width="11.42578125" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="15.42578125" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="11.42578125" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="15.7109375" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="21.85546875" style="1" hidden="1"/>
-    <col min="16132" max="16134" width="11.42578125" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="20.5" style="1" hidden="1"/>
+    <col min="16125" max="16127" width="11.5" style="1" hidden="1"/>
+    <col min="16128" max="16128" width="15.5" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="11.5" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="15.6640625" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="21.83203125" style="1" hidden="1"/>
+    <col min="16132" max="16134" width="11.5" style="1" hidden="1"/>
     <col min="16135" max="16135" width="16" style="1" hidden="1"/>
-    <col min="16136" max="16137" width="20.42578125" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="11.42578125" style="1" hidden="1"/>
+    <col min="16136" max="16137" width="20.5" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="11.5" style="1" hidden="1"/>
     <col min="16140" max="16140" width="16" style="1" hidden="1"/>
-    <col min="16141" max="16143" width="20.42578125" style="1" hidden="1"/>
-    <col min="16144" max="16384" width="11.42578125" style="1" hidden="1"/>
+    <col min="16141" max="16143" width="20.5" style="1" hidden="1"/>
+    <col min="16144" max="16384" width="11.5" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54" customHeight="1">
+    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
@@ -2423,7 +2640,7 @@
       <c r="H1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="39" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="32" t="s">
@@ -2447,22 +2664,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="29" t="str">
-        <f>RAWDATA!B2</f>
-        <v>applicant.last_name</v>
-      </c>
-      <c r="B2" s="29" t="str">
-        <f>RAWDATA!C2</f>
-        <v>applicant.first_name</v>
-      </c>
-      <c r="C2" s="30" t="str">
-        <f>RAWDATA!D2</f>
-        <v>applicant.origin.short_name</v>
-      </c>
-      <c r="D2" s="30" t="str">
-        <f>RAWDATA!E2</f>
-        <v>applicant.tag</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B2" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="30" t="str">
@@ -2499,22 +2716,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="29">
-        <f>RAWDATA!B3</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="29">
-        <f>RAWDATA!C3</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="30">
-        <f>RAWDATA!D3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="30">
-        <f>RAWDATA!E3</f>
-        <v>0</v>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B3" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="30" t="str">
@@ -2551,22 +2768,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="29">
-        <f>RAWDATA!B4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="29">
-        <f>RAWDATA!C4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="30">
-        <f>RAWDATA!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="30">
-        <f>RAWDATA!E4</f>
-        <v>0</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B4" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="30" t="str">
@@ -2603,22 +2820,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="29">
-        <f>RAWDATA!B5</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="29">
-        <f>RAWDATA!C5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="30">
-        <f>RAWDATA!D5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
-        <f>RAWDATA!E5</f>
-        <v>0</v>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B5" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="30" t="str">
@@ -2655,22 +2872,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="29">
-        <f>RAWDATA!B6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="29">
-        <f>RAWDATA!C6</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="30">
-        <f>RAWDATA!D6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
-        <f>RAWDATA!E6</f>
-        <v>0</v>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B6" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="30" t="str">
@@ -2707,22 +2924,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="29">
-        <f>RAWDATA!B7</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="29">
-        <f>RAWDATA!C7</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="30">
-        <f>RAWDATA!D7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
-        <f>RAWDATA!E7</f>
-        <v>0</v>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B7" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="30" t="str">
@@ -2759,22 +2976,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="29">
-        <f>RAWDATA!B8</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="29">
-        <f>RAWDATA!C8</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="30">
-        <f>RAWDATA!D8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
-        <f>RAWDATA!E8</f>
-        <v>0</v>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B8" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C8" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="30" t="str">
@@ -2811,22 +3028,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="29">
-        <f>RAWDATA!B9</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="29">
-        <f>RAWDATA!C9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="30">
-        <f>RAWDATA!D9</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
-        <f>RAWDATA!E9</f>
-        <v>0</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B9" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="30" t="str">
@@ -2863,22 +3080,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="29">
-        <f>RAWDATA!B10</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="29">
-        <f>RAWDATA!C10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="30">
-        <f>RAWDATA!D10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
-        <f>RAWDATA!E10</f>
-        <v>0</v>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B10" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="30" t="str">
@@ -2915,22 +3132,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="29">
-        <f>RAWDATA!B11</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="29">
-        <f>RAWDATA!C11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="30">
-        <f>RAWDATA!D11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="30">
-        <f>RAWDATA!E11</f>
-        <v>0</v>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B11" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="30" t="str">
@@ -2967,22 +3184,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="29">
-        <f>RAWDATA!B12</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="29">
-        <f>RAWDATA!C12</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="30">
-        <f>RAWDATA!D12</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
-        <f>RAWDATA!E12</f>
-        <v>0</v>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B12" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C12" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="30" t="str">
@@ -3019,22 +3236,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="29">
-        <f>RAWDATA!B13</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="29">
-        <f>RAWDATA!C13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="30">
-        <f>RAWDATA!D13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="30">
-        <f>RAWDATA!E13</f>
-        <v>0</v>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B13" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="30" t="str">
@@ -3071,22 +3288,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="29">
-        <f>RAWDATA!B14</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="29">
-        <f>RAWDATA!C14</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <f>RAWDATA!D14</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <f>RAWDATA!E14</f>
-        <v>0</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B14" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="30" t="str">
@@ -3123,22 +3340,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="29">
-        <f>RAWDATA!B15</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="29">
-        <f>RAWDATA!C15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="30">
-        <f>RAWDATA!D15</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="30">
-        <f>RAWDATA!E15</f>
-        <v>0</v>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B15" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="30" t="str">
@@ -3175,22 +3392,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="29">
-        <f>RAWDATA!B16</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="29">
-        <f>RAWDATA!C16</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="30">
-        <f>RAWDATA!D16</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="30">
-        <f>RAWDATA!E16</f>
-        <v>0</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B16" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C16" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="30" t="str">
@@ -3227,22 +3444,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="29">
-        <f>RAWDATA!B17</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="29">
-        <f>RAWDATA!C17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="30">
-        <f>RAWDATA!D17</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="30">
-        <f>RAWDATA!E17</f>
-        <v>0</v>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B17" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C17" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="30" t="str">
@@ -3279,22 +3496,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="29">
-        <f>RAWDATA!B18</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="29">
-        <f>RAWDATA!C18</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="30">
-        <f>RAWDATA!D18</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="30">
-        <f>RAWDATA!E18</f>
-        <v>0</v>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B18" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="30" t="str">
@@ -3331,22 +3548,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="29">
-        <f>RAWDATA!B19</f>
-        <v>0</v>
-      </c>
-      <c r="B19" s="29">
-        <f>RAWDATA!C19</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="30">
-        <f>RAWDATA!D19</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="30">
-        <f>RAWDATA!E19</f>
-        <v>0</v>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B19" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="30" t="str">
@@ -3383,22 +3600,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="29">
-        <f>RAWDATA!B20</f>
-        <v>0</v>
-      </c>
-      <c r="B20" s="29">
-        <f>RAWDATA!C20</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="30">
-        <f>RAWDATA!D20</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="30">
-        <f>RAWDATA!E20</f>
-        <v>0</v>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B20" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C20" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="30" t="str">
@@ -3435,22 +3652,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="29">
-        <f>RAWDATA!B21</f>
-        <v>0</v>
-      </c>
-      <c r="B21" s="29">
-        <f>RAWDATA!C21</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="30">
-        <f>RAWDATA!D21</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="30">
-        <f>RAWDATA!E21</f>
-        <v>0</v>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B21" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C21" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="30" t="str">
@@ -3487,22 +3704,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="29">
-        <f>RAWDATA!B22</f>
-        <v>0</v>
-      </c>
-      <c r="B22" s="29">
-        <f>RAWDATA!C22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="30">
-        <f>RAWDATA!D22</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="30">
-        <f>RAWDATA!E22</f>
-        <v>0</v>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B22" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="30" t="str">
@@ -3539,22 +3756,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="29">
-        <f>RAWDATA!B23</f>
-        <v>0</v>
-      </c>
-      <c r="B23" s="29">
-        <f>RAWDATA!C23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="30">
-        <f>RAWDATA!D23</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="30">
-        <f>RAWDATA!E23</f>
-        <v>0</v>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B23" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C23" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="30" t="str">
@@ -3591,22 +3808,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="29">
-        <f>RAWDATA!B24</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="29">
-        <f>RAWDATA!C24</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="30">
-        <f>RAWDATA!D24</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="30">
-        <f>RAWDATA!E24</f>
-        <v>0</v>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B24" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C24" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="30" t="str">
@@ -3643,22 +3860,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="29">
-        <f>RAWDATA!B25</f>
-        <v>0</v>
-      </c>
-      <c r="B25" s="29">
-        <f>RAWDATA!C25</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="30">
-        <f>RAWDATA!D25</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="30">
-        <f>RAWDATA!E25</f>
-        <v>0</v>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B25" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="30" t="str">
@@ -3695,22 +3912,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="29">
-        <f>RAWDATA!B26</f>
-        <v>0</v>
-      </c>
-      <c r="B26" s="29">
-        <f>RAWDATA!C26</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="30">
-        <f>RAWDATA!D26</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="30">
-        <f>RAWDATA!E26</f>
-        <v>0</v>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B26" s="29" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="30" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="30" t="str">
@@ -3747,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>28</v>
@@ -3763,7 +3980,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -3778,7 +3995,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>30</v>
@@ -3797,7 +4014,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -3811,7 +4028,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1">
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -3819,19 +4036,19 @@
         <v>32</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="31"/>
       <c r="I31" s="25"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -3839,17 +4056,17 @@
         <v>35</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="31"/>
       <c r="I32" s="25"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -3857,17 +4074,17 @@
         <v>2</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="31"/>
       <c r="I33" s="25"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -3875,17 +4092,17 @@
         <v>38</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="31"/>
       <c r="I34" s="25"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -3894,17 +4111,17 @@
         <v>Spanish - Intercultural Communication</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
       <c r="H35" s="31"/>
       <c r="I35" s="25"/>
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -3912,81 +4129,81 @@
         <v>41</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
       <c r="H36" s="31"/>
       <c r="I36" s="25"/>
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="60">
         <v>44408</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="22"/>
       <c r="I37" s="25"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="41" spans="1:12" hidden="1">
-      <c r="A41" s="56"/>
-    </row>
-    <row r="42" spans="1:12" hidden="1">
-      <c r="A42" s="56"/>
-    </row>
-    <row r="43" spans="1:12" hidden="1">
-      <c r="A43" s="56"/>
-    </row>
-    <row r="44" spans="1:12" hidden="1">
-      <c r="A44" s="56"/>
-    </row>
-    <row r="45" spans="1:12" hidden="1">
-      <c r="A45" s="56"/>
-    </row>
-    <row r="46" spans="1:12" hidden="1">
-      <c r="A46" s="56"/>
-    </row>
-    <row r="47" spans="1:12" hidden="1">
-      <c r="A47" s="56"/>
-    </row>
-    <row r="48" spans="1:12" hidden="1">
-      <c r="A48" s="56"/>
-    </row>
-    <row r="52" spans="1:1" hidden="1">
-      <c r="A52" s="56"/>
-    </row>
-    <row r="53" spans="1:1" hidden="1">
-      <c r="A53" s="56"/>
-    </row>
-    <row r="54" spans="1:1" hidden="1">
-      <c r="A54" s="56"/>
-    </row>
-    <row r="55" spans="1:1" hidden="1">
-      <c r="A55" s="56"/>
-    </row>
-    <row r="56" spans="1:1" hidden="1">
-      <c r="A56" s="56"/>
-    </row>
-    <row r="57" spans="1:1" hidden="1">
-      <c r="A57" s="56"/>
-    </row>
-    <row r="58" spans="1:1" hidden="1">
-      <c r="A58" s="56"/>
-    </row>
-    <row r="59" spans="1:1" hidden="1">
-      <c r="A59" s="56"/>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="53"/>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="53"/>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="53"/>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="53"/>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="53"/>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="53"/>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="53"/>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="53"/>
+    </row>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="53"/>
+    </row>
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="53"/>
+    </row>
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="53"/>
+    </row>
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="53"/>
+    </row>
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="53"/>
+    </row>
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="53"/>
+    </row>
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="53"/>
+    </row>
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="53"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -4034,20 +4251,20 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="81" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="78" t="str">
         <f>Notenliste!B34</f>
         <v>Spanisch Intercultural</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
@@ -4056,7 +4273,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -4064,7 +4281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4073,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -4082,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -4091,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -4100,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -4109,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -4118,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -4127,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -4136,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -4145,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -4154,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
@@ -4189,62 +4406,62 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16384" width="11.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="61" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="82" t="str">
+    <row r="1" spans="1:14" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="79" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>Spanisch Intercultural / Spanish - Intercultural Communication</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-    </row>
-    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="83" t="str">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+    </row>
+    <row r="2" spans="1:14" s="58" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84" t="str">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81" t="str">
         <f>"Semster: "&amp;Notenliste!B36</f>
         <v>Semster: SS 2021</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-    </row>
-    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+    </row>
+    <row r="3" spans="1:14" s="59" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4288,41 +4505,41 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="61" customFormat="1">
+    <row r="4" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="str">
-        <f>RAWDATA!B2</f>
-        <v>applicant.last_name</v>
-      </c>
-      <c r="C4" s="18" t="str">
-        <f>RAWDATA!C2</f>
-        <v>applicant.first_name</v>
-      </c>
-      <c r="D4" s="19" t="str">
-        <f>RAWDATA!D2</f>
-        <v>applicant.origin.short_name</v>
-      </c>
-      <c r="E4" s="19" t="str">
-        <f>RAWDATA!E2</f>
-        <v>applicant.tag</v>
-      </c>
-      <c r="F4" s="18" t="str">
-        <f>RAWDATA!F2</f>
-        <v>applicant.mail</v>
-      </c>
-      <c r="G4" s="18" t="str">
-        <f>RAWDATA!G2</f>
-        <v>applicant.phone</v>
-      </c>
-      <c r="H4" s="19">
-        <f>RAWDATA!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <f>RAWDATA!I2</f>
-        <v>0</v>
+      <c r="B4" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J4" s="17" t="str">
         <f>UPPER(Notenliste!H2)</f>
@@ -4345,41 +4562,41 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" s="61" customFormat="1">
+    <row r="5" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="18">
-        <f>RAWDATA!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="18">
-        <f>RAWDATA!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="19">
-        <f>RAWDATA!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <f>RAWDATA!E3</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <f>RAWDATA!F3</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <f>RAWDATA!G3</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <f>RAWDATA!H3</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <f>RAWDATA!I3</f>
-        <v>0</v>
+      <c r="B5" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J5" s="17" t="str">
         <f>UPPER(Notenliste!H3)</f>
@@ -4402,41 +4619,41 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" s="61" customFormat="1">
+    <row r="6" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="18">
-        <f>RAWDATA!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="18">
-        <f>RAWDATA!C4</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="19">
-        <f>RAWDATA!D4</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
-        <f>RAWDATA!E4</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <f>RAWDATA!F4</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <f>RAWDATA!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <f>RAWDATA!H4</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
-        <f>RAWDATA!I4</f>
-        <v>0</v>
+      <c r="B6" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J6" s="17" t="str">
         <f>UPPER(Notenliste!H4)</f>
@@ -4459,41 +4676,41 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" s="61" customFormat="1">
+    <row r="7" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="18">
-        <f>RAWDATA!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
-        <f>RAWDATA!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <f>RAWDATA!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <f>RAWDATA!E5</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <f>RAWDATA!F5</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <f>RAWDATA!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <f>RAWDATA!H5</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <f>RAWDATA!I5</f>
-        <v>0</v>
+      <c r="B7" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J7" s="17" t="str">
         <f>UPPER(Notenliste!H5)</f>
@@ -4516,41 +4733,41 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" s="61" customFormat="1">
+    <row r="8" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="18">
-        <f>RAWDATA!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <f>RAWDATA!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
-        <f>RAWDATA!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <f>RAWDATA!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <f>RAWDATA!F6</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <f>RAWDATA!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
-        <f>RAWDATA!H6</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <f>RAWDATA!I6</f>
-        <v>0</v>
+      <c r="B8" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C8" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J8" s="17" t="str">
         <f>UPPER(Notenliste!H6)</f>
@@ -4573,41 +4790,41 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" s="61" customFormat="1">
+    <row r="9" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="18">
-        <f>RAWDATA!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
-        <f>RAWDATA!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
-        <f>RAWDATA!D7</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <f>RAWDATA!E7</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <f>RAWDATA!F7</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <f>RAWDATA!G7</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <f>RAWDATA!H7</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <f>RAWDATA!I7</f>
-        <v>0</v>
+      <c r="B9" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J9" s="17" t="str">
         <f>UPPER(Notenliste!H7)</f>
@@ -4630,41 +4847,41 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" s="61" customFormat="1">
+    <row r="10" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="18">
-        <f>RAWDATA!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <f>RAWDATA!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="19">
-        <f>RAWDATA!D8</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
-        <f>RAWDATA!E8</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <f>RAWDATA!F8</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <f>RAWDATA!G8</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <f>RAWDATA!H8</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <f>RAWDATA!I8</f>
-        <v>0</v>
+      <c r="B10" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J10" s="17" t="str">
         <f>UPPER(Notenliste!H8)</f>
@@ -4687,41 +4904,41 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" s="61" customFormat="1">
+    <row r="11" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="18">
-        <f>RAWDATA!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <f>RAWDATA!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <f>RAWDATA!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <f>RAWDATA!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <f>RAWDATA!F9</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <f>RAWDATA!G9</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <f>RAWDATA!H9</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <f>RAWDATA!I9</f>
-        <v>0</v>
+      <c r="B11" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J11" s="17" t="str">
         <f>UPPER(Notenliste!H9)</f>
@@ -4744,41 +4961,41 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" s="61" customFormat="1">
+    <row r="12" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>9</v>
       </c>
-      <c r="B12" s="18">
-        <f>RAWDATA!B10</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
-        <f>RAWDATA!C10</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
-        <f>RAWDATA!D10</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
-        <f>RAWDATA!E10</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <f>RAWDATA!F10</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <f>RAWDATA!G10</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
-        <f>RAWDATA!H10</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="19">
-        <f>RAWDATA!I10</f>
-        <v>0</v>
+      <c r="B12" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C12" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J12" s="17" t="str">
         <f>UPPER(Notenliste!H10)</f>
@@ -4801,41 +5018,41 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" s="61" customFormat="1">
+    <row r="13" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="18">
-        <f>RAWDATA!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="18">
-        <f>RAWDATA!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <f>RAWDATA!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <f>RAWDATA!E11</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <f>RAWDATA!F11</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <f>RAWDATA!G11</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="19">
-        <f>RAWDATA!H11</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="19">
-        <f>RAWDATA!I11</f>
-        <v>0</v>
+      <c r="B13" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J13" s="17" t="str">
         <f>UPPER(Notenliste!H11)</f>
@@ -4858,41 +5075,41 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" s="61" customFormat="1">
+    <row r="14" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="18">
-        <f>RAWDATA!B12</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="18">
-        <f>RAWDATA!C12</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <f>RAWDATA!D12</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
-        <f>RAWDATA!E12</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <f>RAWDATA!F12</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <f>RAWDATA!G12</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
-        <f>RAWDATA!H12</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="19">
-        <f>RAWDATA!I12</f>
-        <v>0</v>
+      <c r="B14" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J14" s="17" t="str">
         <f>UPPER(Notenliste!H12)</f>
@@ -4915,41 +5132,41 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" s="61" customFormat="1">
+    <row r="15" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="18">
-        <f>RAWDATA!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="18">
-        <f>RAWDATA!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="19">
-        <f>RAWDATA!D13</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="19">
-        <f>RAWDATA!E13</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <f>RAWDATA!F13</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <f>RAWDATA!G13</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="19">
-        <f>RAWDATA!H13</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
-        <f>RAWDATA!I13</f>
-        <v>0</v>
+      <c r="B15" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J15" s="17" t="str">
         <f>UPPER(Notenliste!H13)</f>
@@ -4972,41 +5189,41 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" s="61" customFormat="1">
+    <row r="16" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>13</v>
       </c>
-      <c r="B16" s="18">
-        <f>RAWDATA!B14</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="18">
-        <f>RAWDATA!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
-        <f>RAWDATA!D14</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="19">
-        <f>RAWDATA!E14</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <f>RAWDATA!F14</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <f>RAWDATA!G14</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <f>RAWDATA!H14</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <f>RAWDATA!I14</f>
-        <v>0</v>
+      <c r="B16" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C16" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J16" s="17" t="str">
         <f>UPPER(Notenliste!H14)</f>
@@ -5029,41 +5246,41 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" s="61" customFormat="1">
+    <row r="17" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="18">
-        <f>RAWDATA!B15</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
-        <f>RAWDATA!C15</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="19">
-        <f>RAWDATA!D15</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="19">
-        <f>RAWDATA!E15</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <f>RAWDATA!F15</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <f>RAWDATA!G15</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="19">
-        <f>RAWDATA!H15</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
-        <f>RAWDATA!I15</f>
-        <v>0</v>
+      <c r="B17" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C17" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J17" s="17" t="str">
         <f>UPPER(Notenliste!H15)</f>
@@ -5086,41 +5303,41 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" s="61" customFormat="1">
+    <row r="18" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>15</v>
       </c>
-      <c r="B18" s="18">
-        <f>RAWDATA!B16</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <f>RAWDATA!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="19">
-        <f>RAWDATA!D16</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="19">
-        <f>RAWDATA!E16</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <f>RAWDATA!F16</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <f>RAWDATA!G16</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="19">
-        <f>RAWDATA!H16</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="19">
-        <f>RAWDATA!I16</f>
-        <v>0</v>
+      <c r="B18" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J18" s="17" t="str">
         <f>UPPER(Notenliste!H16)</f>
@@ -5143,41 +5360,41 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" s="61" customFormat="1">
+    <row r="19" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="18">
-        <f>RAWDATA!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
-        <f>RAWDATA!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="19">
-        <f>RAWDATA!D17</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="19">
-        <f>RAWDATA!E17</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <f>RAWDATA!F17</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <f>RAWDATA!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <f>RAWDATA!H17</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="19">
-        <f>RAWDATA!I17</f>
-        <v>0</v>
+      <c r="B19" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J19" s="17" t="str">
         <f>UPPER(Notenliste!H17)</f>
@@ -5200,41 +5417,41 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" s="61" customFormat="1">
+    <row r="20" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>17</v>
       </c>
-      <c r="B20" s="18">
-        <f>RAWDATA!B18</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <f>RAWDATA!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="19">
-        <f>RAWDATA!D18</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="19">
-        <f>RAWDATA!E18</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <f>RAWDATA!F18</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <f>RAWDATA!G18</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <f>RAWDATA!H18</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="19">
-        <f>RAWDATA!I18</f>
-        <v>0</v>
+      <c r="B20" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C20" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I20" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J20" s="17" t="str">
         <f>UPPER(Notenliste!H18)</f>
@@ -5257,41 +5474,41 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" s="61" customFormat="1">
+    <row r="21" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="18">
-        <f>RAWDATA!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="18">
-        <f>RAWDATA!C19</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="19">
-        <f>RAWDATA!D19</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="19">
-        <f>RAWDATA!E19</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <f>RAWDATA!F19</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
-        <f>RAWDATA!G19</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="19">
-        <f>RAWDATA!H19</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="19">
-        <f>RAWDATA!I19</f>
-        <v>0</v>
+      <c r="B21" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C21" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J21" s="17" t="str">
         <f>UPPER(Notenliste!H19)</f>
@@ -5314,41 +5531,41 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" s="61" customFormat="1">
+    <row r="22" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>19</v>
       </c>
-      <c r="B22" s="18">
-        <f>RAWDATA!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="18">
-        <f>RAWDATA!C20</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="19">
-        <f>RAWDATA!D20</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="19">
-        <f>RAWDATA!E20</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <f>RAWDATA!F20</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
-        <f>RAWDATA!G20</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="19">
-        <f>RAWDATA!H20</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="19">
-        <f>RAWDATA!I20</f>
-        <v>0</v>
+      <c r="B22" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J22" s="17" t="str">
         <f>UPPER(Notenliste!H20)</f>
@@ -5371,41 +5588,41 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" s="61" customFormat="1">
+    <row r="23" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="18">
-        <f>RAWDATA!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="18">
-        <f>RAWDATA!C21</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="19">
-        <f>RAWDATA!D21</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="19">
-        <f>RAWDATA!E21</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <f>RAWDATA!F21</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="18">
-        <f>RAWDATA!G21</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="19">
-        <f>RAWDATA!H21</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="19">
-        <f>RAWDATA!I21</f>
-        <v>0</v>
+      <c r="B23" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C23" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I23" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J23" s="17" t="str">
         <f>UPPER(Notenliste!H21)</f>
@@ -5428,41 +5645,41 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" s="61" customFormat="1">
+    <row r="24" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>21</v>
       </c>
-      <c r="B24" s="18">
-        <f>RAWDATA!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="18">
-        <f>RAWDATA!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="19">
-        <f>RAWDATA!D22</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="19">
-        <f>RAWDATA!E22</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <f>RAWDATA!F22</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <f>RAWDATA!G22</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="19">
-        <f>RAWDATA!H22</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <f>RAWDATA!I22</f>
-        <v>0</v>
+      <c r="B24" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C24" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F24" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I24" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J24" s="17" t="str">
         <f>UPPER(Notenliste!H22)</f>
@@ -5485,41 +5702,41 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" s="61" customFormat="1">
+    <row r="25" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="18">
-        <f>RAWDATA!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="18">
-        <f>RAWDATA!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="19">
-        <f>RAWDATA!D23</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
-        <f>RAWDATA!E23</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <f>RAWDATA!F23</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <f>RAWDATA!G23</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="19">
-        <f>RAWDATA!H23</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="19">
-        <f>RAWDATA!I23</f>
-        <v>0</v>
+      <c r="B25" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F25" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I25" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J25" s="17" t="str">
         <f>UPPER(Notenliste!H23)</f>
@@ -5542,41 +5759,41 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" s="61" customFormat="1">
+    <row r="26" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>23</v>
       </c>
-      <c r="B26" s="18">
-        <f>RAWDATA!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="18">
-        <f>RAWDATA!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="19">
-        <f>RAWDATA!D24</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="19">
-        <f>RAWDATA!E24</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <f>RAWDATA!F24</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <f>RAWDATA!G24</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="19">
-        <f>RAWDATA!H24</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="19">
-        <f>RAWDATA!I24</f>
-        <v>0</v>
+      <c r="B26" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F26" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J26" s="17" t="str">
         <f>UPPER(Notenliste!H24)</f>
@@ -5599,41 +5816,41 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" s="61" customFormat="1">
+    <row r="27" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>24</v>
       </c>
-      <c r="B27" s="18">
-        <f>RAWDATA!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="18">
-        <f>RAWDATA!C25</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="19">
-        <f>RAWDATA!D25</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="19">
-        <f>RAWDATA!E25</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <f>RAWDATA!F25</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <f>RAWDATA!G25</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="19">
-        <f>RAWDATA!H25</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="19">
-        <f>RAWDATA!I25</f>
-        <v>0</v>
+      <c r="B27" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C27" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J27" s="17" t="str">
         <f>UPPER(Notenliste!H25)</f>
@@ -5656,41 +5873,41 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" s="61" customFormat="1">
+    <row r="28" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>25</v>
       </c>
-      <c r="B28" s="18">
-        <f>RAWDATA!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="18">
-        <f>RAWDATA!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="19">
-        <f>RAWDATA!D26</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="19">
-        <f>RAWDATA!E26</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
-        <f>RAWDATA!F26</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="18">
-        <f>RAWDATA!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="19">
-        <f>RAWDATA!H26</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="19">
-        <f>RAWDATA!I26</f>
-        <v>0</v>
+      <c r="B28" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C28" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I28" s="19" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J28" s="17" t="str">
         <f>UPPER(Notenliste!H26)</f>
@@ -5713,16 +5930,16 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" s="61" customFormat="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
+    <row r="29" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="17">
         <f>COUNTIF(J4:J28,"X")</f>
         <v>0</v>
@@ -5731,92 +5948,92 @@
         <f>COUNTIF(K4:K28,"X")</f>
         <v>0</v>
       </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="60"/>
-    </row>
-    <row r="30" spans="1:14" s="61" customFormat="1">
-      <c r="A30" s="85" t="s">
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="57"/>
+    </row>
+    <row r="30" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-    </row>
-    <row r="31" spans="1:14" s="61" customFormat="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-    </row>
-    <row r="32" spans="1:14" s="61" customFormat="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-    </row>
-    <row r="33" spans="1:15" s="61" customFormat="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="61"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+    </row>
+    <row r="31" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+    </row>
+    <row r="32" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+    </row>
+    <row r="33" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="58"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
@@ -5849,130 +6066,130 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.85546875" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="54" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="55" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.83203125" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.83203125" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="51" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="52" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="37" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="16384" width="11.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="88" t="str">
+    <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>Spanisch Intercultural / Spanish - Intercultural Communication</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-    </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+    </row>
+    <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
-      <c r="A3" s="89" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-    </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+    </row>
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -5986,25 +6203,25 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="95" t="s">
+      <c r="U4" s="43"/>
+      <c r="V4" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="86" t="s">
+      <c r="W4" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="86" t="s">
+      <c r="X4" s="83" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="45">
+    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="42">
         <v>1</v>
       </c>
       <c r="H5" s="14">
@@ -6046,1013 +6263,1013 @@
       <c r="T5" s="14">
         <v>14</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="U5" s="45"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="str">
-        <f>RAWDATA!B2</f>
-        <v>applicant.last_name</v>
-      </c>
-      <c r="C6" s="18" t="str">
-        <f>RAWDATA!C2</f>
-        <v>applicant.first_name</v>
-      </c>
-      <c r="D6" s="18" t="str">
-        <f>RAWDATA!D2</f>
-        <v>applicant.origin.short_name</v>
-      </c>
-      <c r="E6" s="18" t="str">
-        <f>RAWDATA!E2</f>
-        <v>applicant.tag</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="B6" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="18">
-        <f>RAWDATA!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
-        <f>RAWDATA!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <f>RAWDATA!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <f>RAWDATA!E3</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="B7" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="18">
-        <f>RAWDATA!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <f>RAWDATA!C4</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="18">
-        <f>RAWDATA!D4</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <f>RAWDATA!E4</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="B8" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C8" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="18">
-        <f>RAWDATA!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
-        <f>RAWDATA!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="18">
-        <f>RAWDATA!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <f>RAWDATA!E5</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="B9" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="18">
-        <f>RAWDATA!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <f>RAWDATA!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
-        <f>RAWDATA!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
-        <f>RAWDATA!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="B10" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>6</v>
       </c>
-      <c r="B11" s="18">
-        <f>RAWDATA!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <f>RAWDATA!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
-        <f>RAWDATA!D7</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <f>RAWDATA!E7</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="B11" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>7</v>
       </c>
-      <c r="B12" s="18">
-        <f>RAWDATA!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
-        <f>RAWDATA!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
-        <f>RAWDATA!D8</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <f>RAWDATA!E8</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="B12" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C12" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>8</v>
       </c>
-      <c r="B13" s="18">
-        <f>RAWDATA!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="18">
-        <f>RAWDATA!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
-        <f>RAWDATA!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <f>RAWDATA!E9</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="B13" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>9</v>
       </c>
-      <c r="B14" s="18">
-        <f>RAWDATA!B10</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="18">
-        <f>RAWDATA!C10</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="18">
-        <f>RAWDATA!D10</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <f>RAWDATA!E10</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="B14" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>10</v>
       </c>
-      <c r="B15" s="18">
-        <f>RAWDATA!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="18">
-        <f>RAWDATA!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
-        <f>RAWDATA!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <f>RAWDATA!E11</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="B15" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>11</v>
       </c>
-      <c r="B16" s="18">
-        <f>RAWDATA!B12</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="18">
-        <f>RAWDATA!C12</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="18">
-        <f>RAWDATA!D12</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <f>RAWDATA!E12</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="B16" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C16" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>12</v>
       </c>
-      <c r="B17" s="18">
-        <f>RAWDATA!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
-        <f>RAWDATA!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="18">
-        <f>RAWDATA!D13</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <f>RAWDATA!E13</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="B17" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C17" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>13</v>
       </c>
-      <c r="B18" s="18">
-        <f>RAWDATA!B14</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <f>RAWDATA!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="18">
-        <f>RAWDATA!D14</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <f>RAWDATA!E14</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="B18" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>14</v>
       </c>
-      <c r="B19" s="18">
-        <f>RAWDATA!B15</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
-        <f>RAWDATA!C15</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="18">
-        <f>RAWDATA!D15</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <f>RAWDATA!E15</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="B19" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>15</v>
       </c>
-      <c r="B20" s="18">
-        <f>RAWDATA!B16</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <f>RAWDATA!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="18">
-        <f>RAWDATA!D16</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <f>RAWDATA!E16</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="B20" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C20" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>16</v>
       </c>
-      <c r="B21" s="18">
-        <f>RAWDATA!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="18">
-        <f>RAWDATA!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="18">
-        <f>RAWDATA!D17</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <f>RAWDATA!E17</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="B21" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C21" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>17</v>
       </c>
-      <c r="B22" s="18">
-        <f>RAWDATA!B18</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="18">
-        <f>RAWDATA!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="18">
-        <f>RAWDATA!D18</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="18">
-        <f>RAWDATA!E18</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="B22" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>18</v>
       </c>
-      <c r="B23" s="18">
-        <f>RAWDATA!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="18">
-        <f>RAWDATA!C19</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="18">
-        <f>RAWDATA!D19</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <f>RAWDATA!E19</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="B23" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C23" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>19</v>
       </c>
-      <c r="B24" s="18">
-        <f>RAWDATA!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="18">
-        <f>RAWDATA!C20</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="18">
-        <f>RAWDATA!D20</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
-        <f>RAWDATA!E20</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="B24" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C24" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F24" s="49"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>20</v>
       </c>
-      <c r="B25" s="18">
-        <f>RAWDATA!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="18">
-        <f>RAWDATA!C21</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="18">
-        <f>RAWDATA!D21</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
-        <f>RAWDATA!E21</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="B25" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F25" s="49"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>21</v>
       </c>
-      <c r="B26" s="18">
-        <f>RAWDATA!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="18">
-        <f>RAWDATA!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="18">
-        <f>RAWDATA!D22</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <f>RAWDATA!E22</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="B26" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>22</v>
       </c>
-      <c r="B27" s="18">
-        <f>RAWDATA!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="18">
-        <f>RAWDATA!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="18">
-        <f>RAWDATA!D23</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
-        <f>RAWDATA!E23</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="B27" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C27" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>23</v>
       </c>
-      <c r="B28" s="18">
-        <f>RAWDATA!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="18">
-        <f>RAWDATA!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="18">
-        <f>RAWDATA!D24</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="18">
-        <f>RAWDATA!E24</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="B28" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C28" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <v>24</v>
       </c>
-      <c r="B29" s="18">
-        <f>RAWDATA!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="18">
-        <f>RAWDATA!C25</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="18">
-        <f>RAWDATA!D25</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="18">
-        <f>RAWDATA!E25</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="B29" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C29" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F29" s="49"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>25</v>
       </c>
-      <c r="B30" s="18">
-        <f>RAWDATA!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="18">
-        <f>RAWDATA!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="18">
-        <f>RAWDATA!D26</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="18">
-        <f>RAWDATA!E26</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
+      <c r="B30" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C30" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" selectLockedCells="1"/>
+  <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
@@ -7089,19 +7306,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18" style="61" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="64" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
@@ -7110,10 +7327,10 @@
       <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="63" t="s">
         <v>57</v>
       </c>
       <c r="F1" t="s">
@@ -7126,454 +7343,454 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="64" t="str">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="e">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
-        <v>applicant.tag</v>
-      </c>
-      <c r="C2">
+        <v>#REF!</v>
+      </c>
+      <c r="C2" t="e">
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="65" t="str">
         <f>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="63" t="e">
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v>44408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="e">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C3" t="e">
         <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D3" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="65" t="str">
         <f>IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E3" s="66" t="str">
+      <c r="E3" s="63" t="e">
         <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="e">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C4" t="e">
         <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D4" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="65" t="str">
         <f>IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E4" s="66" t="str">
+      <c r="E4" s="63" t="e">
         <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="e">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C5" t="e">
         <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="65" t="str">
         <f>IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E5" s="66" t="str">
+      <c r="E5" s="63" t="e">
         <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="e">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C6" t="e">
         <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="65" t="str">
         <f>IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" s="66" t="str">
+      <c r="E6" s="63" t="e">
         <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="e">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C7" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C7" t="e">
         <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D7" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="65" t="str">
         <f>IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="66" t="str">
+      <c r="E7" s="63" t="e">
         <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="e">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C8" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C8" t="e">
         <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D8" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="65" t="str">
         <f>IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="66" t="str">
+      <c r="E8" s="63" t="e">
         <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="e">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C9" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C9" t="e">
         <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D9" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="65" t="str">
         <f>IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="66" t="str">
+      <c r="E9" s="63" t="e">
         <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="61" t="e">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C10" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C10" t="e">
         <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D10" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="65" t="str">
         <f>IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="66" t="str">
+      <c r="E10" s="63" t="e">
         <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="e">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C11" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C11" t="e">
         <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D11" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="65" t="str">
         <f>IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" s="66" t="str">
+      <c r="E11" s="63" t="e">
         <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="61" t="e">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C12" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C12" t="e">
         <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D12" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="65" t="str">
         <f>IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="66" t="str">
+      <c r="E12" s="63" t="e">
         <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="61" t="e">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C13" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C13" t="e">
         <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D13" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="65" t="str">
         <f>IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="66" t="str">
+      <c r="E13" s="63" t="e">
         <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="e">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C14" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C14" t="e">
         <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D14" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="65" t="str">
         <f>IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="66" t="str">
+      <c r="E14" s="63" t="e">
         <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="e">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C15" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C15" t="e">
         <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D15" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="65" t="str">
         <f>IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="66" t="str">
+      <c r="E15" s="63" t="e">
         <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="61" t="e">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C16" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C16" t="e">
         <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D16" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="65" t="str">
         <f>IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="66" t="str">
+      <c r="E16" s="63" t="e">
         <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="e">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C17" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C17" t="e">
         <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D17" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="65" t="str">
         <f>IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="66" t="str">
+      <c r="E17" s="63" t="e">
         <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="e">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C18" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C18" t="e">
         <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D18" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="65" t="str">
         <f>IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="66" t="str">
+      <c r="E18" s="63" t="e">
         <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="e">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C19" t="e">
         <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D19" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="65" t="str">
         <f>IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="66" t="str">
+      <c r="E19" s="63" t="e">
         <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="e">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C20" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C20" t="e">
         <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D20" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="65" t="str">
         <f>IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="66" t="str">
+      <c r="E20" s="63" t="e">
         <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="e">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C21" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C21" t="e">
         <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D21" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="65" t="str">
         <f>IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="66" t="str">
+      <c r="E21" s="63" t="e">
         <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="e">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C22" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C22" t="e">
         <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D22" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="65" t="str">
         <f>IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="66" t="str">
+      <c r="E22" s="63" t="e">
         <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="61" t="e">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C23" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C23" t="e">
         <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D23" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="65" t="str">
         <f>IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="66" t="str">
+      <c r="E23" s="63" t="e">
         <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="61" t="e">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C24" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C24" t="e">
         <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D24" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="65" t="str">
         <f>IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="66" t="str">
+      <c r="E24" s="63" t="e">
         <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="e">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C25" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C25" t="e">
         <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D25" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="65" t="str">
         <f>IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="66" t="str">
+      <c r="E25" s="63" t="e">
         <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="64" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="e">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C26" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C26" t="e">
         <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D26" s="68" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="65" t="str">
         <f>IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="66" t="str">
+      <c r="E26" s="63" t="e">
         <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -7615,250 +7832,250 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="2.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="72" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="D3" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="F3" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="H3" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="72" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="D4" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="F4" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="H4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="72" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="77" t="s">
+      <c r="B5" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="H5" s="70"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="73"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="78" t="s">
+      <c r="D6" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="F6" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="H6" s="70"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="77" t="s">
+      <c r="B7" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="D7" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="F7" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="H7" s="70"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="77" t="s">
+      <c r="B8" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="D8" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="F8" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="73"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="78" t="s">
+      <c r="B9" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="F9" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="H9" s="70"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="D10" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="73"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="D10" s="71" t="s">
+      <c r="F10" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="H10" s="70"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="73"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="71" t="s">
+      <c r="B11" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="D11" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="F11" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="H11" s="70"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="D12" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="73"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="D12" s="71" t="s">
+      <c r="F12" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="D13" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="73"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="D13" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="73"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="D14" s="71" t="s">
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="D14" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="73"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="H15" s="73"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="H16" s="73"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="H17" s="73"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="H14" s="70"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="H15" s="70"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="H16" s="70"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="H17" s="70"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="H18" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
